--- a/scinumcomp.xlsx
+++ b/scinumcomp.xlsx
@@ -8,13 +8,16 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/bowenya/Final_Project/Final_Project/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5824F549-DB6C-3141-9D4C-4946F961B388}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7FF3D80D-46CE-FB40-9EA8-C9CBF62DCDC0}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="380" yWindow="460" windowWidth="28040" windowHeight="17040" activeTab="1" xr2:uid="{E8A06CA4-7323-AF42-9425-54CB678597CF}"/>
+    <workbookView xWindow="380" yWindow="460" windowWidth="28040" windowHeight="17040" activeTab="4" xr2:uid="{E8A06CA4-7323-AF42-9425-54CB678597CF}"/>
   </bookViews>
   <sheets>
     <sheet name="db" sheetId="1" r:id="rId1"/>
     <sheet name="dl" sheetId="2" r:id="rId2"/>
+    <sheet name="ol" sheetId="3" r:id="rId3"/>
+    <sheet name="rb" sheetId="4" r:id="rId4"/>
+    <sheet name="Sheet5" sheetId="5" r:id="rId5"/>
   </sheets>
   <definedNames>
     <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">db!$A$1:$D$1</definedName>
@@ -36,7 +39,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="92" uniqueCount="47">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="233" uniqueCount="51">
   <si>
     <t>1‘adjusted_yards_per_attempt’,</t>
   </si>
@@ -177,6 +180,18 @@
   </si>
   <si>
     <t>dl</t>
+  </si>
+  <si>
+    <t>ol</t>
+  </si>
+  <si>
+    <t>abs</t>
+  </si>
+  <si>
+    <t>rb</t>
+  </si>
+  <si>
+    <t>k</t>
   </si>
 </sst>
 </file>
@@ -1290,8 +1305,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{52FA894D-852F-2E4D-881A-E090D208261A}">
   <dimension ref="A1:D45"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="O16" sqref="O16"/>
+    <sheetView workbookViewId="0">
+      <selection sqref="A1:A45"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16"/>
@@ -1845,4 +1860,1686 @@
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" horizontalDpi="0" verticalDpi="0"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{3A72916D-D617-C945-A9ED-04A404349FF9}">
+  <dimension ref="A1:C45"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection sqref="A1:A45"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="16"/>
+  <cols>
+    <col min="1" max="1" width="40.5" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="14" customWidth="1"/>
+    <col min="3" max="3" width="18.33203125" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:3">
+      <c r="A1" t="s">
+        <v>44</v>
+      </c>
+      <c r="B1" t="s">
+        <v>47</v>
+      </c>
+      <c r="C1" t="s">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="2" spans="1:3">
+      <c r="A2" s="1" t="s">
+        <v>40</v>
+      </c>
+      <c r="B2" s="2">
+        <v>-131273169000000</v>
+      </c>
+      <c r="C2">
+        <f>ABS(B2)</f>
+        <v>131273169000000</v>
+      </c>
+    </row>
+    <row r="3" spans="1:3">
+      <c r="A3" s="1" t="s">
+        <v>27</v>
+      </c>
+      <c r="B3" s="2">
+        <v>-69511901200000</v>
+      </c>
+      <c r="C3">
+        <f>ABS(B3)</f>
+        <v>69511901200000</v>
+      </c>
+    </row>
+    <row r="4" spans="1:3">
+      <c r="A4" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="B4" s="2">
+        <v>67002356800000</v>
+      </c>
+      <c r="C4">
+        <f>ABS(B4)</f>
+        <v>67002356800000</v>
+      </c>
+    </row>
+    <row r="5" spans="1:3">
+      <c r="A5" s="1" t="s">
+        <v>33</v>
+      </c>
+      <c r="B5" s="2">
+        <v>-40437261200000</v>
+      </c>
+      <c r="C5">
+        <f>ABS(B5)</f>
+        <v>40437261200000</v>
+      </c>
+    </row>
+    <row r="6" spans="1:3">
+      <c r="A6" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="B6" s="2">
+        <v>-32396613000000</v>
+      </c>
+      <c r="C6">
+        <f>ABS(B6)</f>
+        <v>32396613000000</v>
+      </c>
+    </row>
+    <row r="7" spans="1:3">
+      <c r="A7" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="B7" s="2">
+        <v>29282091700000</v>
+      </c>
+      <c r="C7">
+        <f>ABS(B7)</f>
+        <v>29282091700000</v>
+      </c>
+    </row>
+    <row r="8" spans="1:3">
+      <c r="A8" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="B8" s="2">
+        <v>-19184155600000</v>
+      </c>
+      <c r="C8">
+        <f>ABS(B8)</f>
+        <v>19184155600000</v>
+      </c>
+    </row>
+    <row r="9" spans="1:3">
+      <c r="A9" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="B9" s="2">
+        <v>-19105020500000</v>
+      </c>
+      <c r="C9">
+        <f>ABS(B9)</f>
+        <v>19105020500000</v>
+      </c>
+    </row>
+    <row r="10" spans="1:3">
+      <c r="A10" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="B10" s="2">
+        <v>-18731955800000</v>
+      </c>
+      <c r="C10">
+        <f>ABS(B10)</f>
+        <v>18731955800000</v>
+      </c>
+    </row>
+    <row r="11" spans="1:3">
+      <c r="A11" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="B11" s="2">
+        <v>-18731955800000</v>
+      </c>
+      <c r="C11">
+        <f>ABS(B11)</f>
+        <v>18731955800000</v>
+      </c>
+    </row>
+    <row r="12" spans="1:3">
+      <c r="A12" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="B12" s="2">
+        <v>18731955800000</v>
+      </c>
+      <c r="C12">
+        <f>ABS(B12)</f>
+        <v>18731955800000</v>
+      </c>
+    </row>
+    <row r="13" spans="1:3">
+      <c r="A13" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="B13" s="2">
+        <v>-12935995400000</v>
+      </c>
+      <c r="C13">
+        <f>ABS(B13)</f>
+        <v>12935995400000</v>
+      </c>
+    </row>
+    <row r="14" spans="1:3">
+      <c r="A14" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B14" s="2">
+        <v>-11992442900000</v>
+      </c>
+      <c r="C14">
+        <f>ABS(B14)</f>
+        <v>11992442900000</v>
+      </c>
+    </row>
+    <row r="15" spans="1:3">
+      <c r="A15" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="B15" s="2">
+        <v>-6467464830000</v>
+      </c>
+      <c r="C15">
+        <f>ABS(B15)</f>
+        <v>6467464830000</v>
+      </c>
+    </row>
+    <row r="16" spans="1:3">
+      <c r="A16" s="1" t="s">
+        <v>37</v>
+      </c>
+      <c r="B16" s="2">
+        <v>-6178972910000</v>
+      </c>
+      <c r="C16">
+        <f>ABS(B16)</f>
+        <v>6178972910000</v>
+      </c>
+    </row>
+    <row r="17" spans="1:3">
+      <c r="A17" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="B17" s="2">
+        <v>-5603146300000</v>
+      </c>
+      <c r="C17">
+        <f>ABS(B17)</f>
+        <v>5603146300000</v>
+      </c>
+    </row>
+    <row r="18" spans="1:3">
+      <c r="A18" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="B18" s="2">
+        <v>-5207997800000</v>
+      </c>
+      <c r="C18">
+        <f>ABS(B18)</f>
+        <v>5207997800000</v>
+      </c>
+    </row>
+    <row r="19" spans="1:3">
+      <c r="A19" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="B19" s="2">
+        <v>-5048968050000</v>
+      </c>
+      <c r="C19">
+        <f>ABS(B19)</f>
+        <v>5048968050000</v>
+      </c>
+    </row>
+    <row r="20" spans="1:3">
+      <c r="A20" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="B20" s="2">
+        <v>-5048968050000</v>
+      </c>
+      <c r="C20">
+        <f>ABS(B20)</f>
+        <v>5048968050000</v>
+      </c>
+    </row>
+    <row r="21" spans="1:3">
+      <c r="A21" s="1" t="s">
+        <v>30</v>
+      </c>
+      <c r="B21" s="2">
+        <v>-3498055570000</v>
+      </c>
+      <c r="C21">
+        <f>ABS(B21)</f>
+        <v>3498055570000</v>
+      </c>
+    </row>
+    <row r="22" spans="1:3">
+      <c r="A22" s="1" t="s">
+        <v>35</v>
+      </c>
+      <c r="B22" s="2">
+        <v>3498055570000</v>
+      </c>
+      <c r="C22">
+        <f>ABS(B22)</f>
+        <v>3498055570000</v>
+      </c>
+    </row>
+    <row r="23" spans="1:3">
+      <c r="A23" s="1" t="s">
+        <v>42</v>
+      </c>
+      <c r="B23" s="2">
+        <v>1998740480000</v>
+      </c>
+      <c r="C23">
+        <f>ABS(B23)</f>
+        <v>1998740480000</v>
+      </c>
+    </row>
+    <row r="24" spans="1:3">
+      <c r="A24" s="1" t="s">
+        <v>43</v>
+      </c>
+      <c r="B24" s="2">
+        <v>-1070870170000</v>
+      </c>
+      <c r="C24">
+        <f>ABS(B24)</f>
+        <v>1070870170000</v>
+      </c>
+    </row>
+    <row r="25" spans="1:3">
+      <c r="A25" s="1" t="s">
+        <v>34</v>
+      </c>
+      <c r="B25" s="5">
+        <v>-489260937000</v>
+      </c>
+      <c r="C25">
+        <f>ABS(B25)</f>
+        <v>489260937000</v>
+      </c>
+    </row>
+    <row r="26" spans="1:3">
+      <c r="A26" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="B26" s="2">
+        <v>359303602000</v>
+      </c>
+      <c r="C26">
+        <f>ABS(B26)</f>
+        <v>359303602000</v>
+      </c>
+    </row>
+    <row r="27" spans="1:3">
+      <c r="A27" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="B27" s="2">
+        <v>359303602000</v>
+      </c>
+      <c r="C27">
+        <f>ABS(B27)</f>
+        <v>359303602000</v>
+      </c>
+    </row>
+    <row r="28" spans="1:3">
+      <c r="A28" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="B28" s="2">
+        <v>-2.78654286</v>
+      </c>
+      <c r="C28">
+        <f>ABS(B28)</f>
+        <v>2.78654286</v>
+      </c>
+    </row>
+    <row r="29" spans="1:3">
+      <c r="A29" s="1" t="s">
+        <v>32</v>
+      </c>
+      <c r="B29" s="2">
+        <v>1.3136249499999999</v>
+      </c>
+      <c r="C29">
+        <f>ABS(B29)</f>
+        <v>1.3136249499999999</v>
+      </c>
+    </row>
+    <row r="30" spans="1:3">
+      <c r="A30" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="B30" s="2">
+        <v>-0.77147658600000002</v>
+      </c>
+      <c r="C30">
+        <f>ABS(B30)</f>
+        <v>0.77147658600000002</v>
+      </c>
+    </row>
+    <row r="31" spans="1:3">
+      <c r="A31" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="B31" s="2">
+        <v>-0.77147658600000002</v>
+      </c>
+      <c r="C31">
+        <f>ABS(B31)</f>
+        <v>0.77147658600000002</v>
+      </c>
+    </row>
+    <row r="32" spans="1:3">
+      <c r="A32" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="B32" s="2">
+        <v>0.262947243</v>
+      </c>
+      <c r="C32">
+        <f>ABS(B32)</f>
+        <v>0.262947243</v>
+      </c>
+    </row>
+    <row r="33" spans="1:3">
+      <c r="A33" s="1" t="s">
+        <v>26</v>
+      </c>
+      <c r="B33" s="2">
+        <v>0</v>
+      </c>
+      <c r="C33">
+        <f>ABS(B33)</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="34" spans="1:3">
+      <c r="A34" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="B34" s="2">
+        <v>0</v>
+      </c>
+      <c r="C34">
+        <f>ABS(B34)</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="35" spans="1:3">
+      <c r="A35" s="1" t="s">
+        <v>29</v>
+      </c>
+      <c r="B35" s="2">
+        <v>0</v>
+      </c>
+      <c r="C35">
+        <f>ABS(B35)</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="36" spans="1:3">
+      <c r="A36" s="1" t="s">
+        <v>39</v>
+      </c>
+      <c r="B36" s="2">
+        <v>0</v>
+      </c>
+      <c r="C36">
+        <f>ABS(B36)</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="37" spans="1:3">
+      <c r="A37" s="1" t="s">
+        <v>41</v>
+      </c>
+      <c r="B37" s="2">
+        <v>0</v>
+      </c>
+      <c r="C37">
+        <f>ABS(B37)</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="38" spans="1:3">
+      <c r="A38" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="B38" s="2">
+        <v>0</v>
+      </c>
+      <c r="C38">
+        <f>ABS(B38)</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="39" spans="1:3">
+      <c r="A39" s="1" t="s">
+        <v>36</v>
+      </c>
+      <c r="B39" s="2">
+        <v>0</v>
+      </c>
+      <c r="C39">
+        <f>ABS(B39)</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="40" spans="1:3">
+      <c r="A40" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="B40" s="2">
+        <v>0</v>
+      </c>
+      <c r="C40">
+        <f>ABS(B40)</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="41" spans="1:3">
+      <c r="A41" s="1" t="s">
+        <v>38</v>
+      </c>
+      <c r="B41" s="2">
+        <v>0</v>
+      </c>
+      <c r="C41">
+        <f>ABS(B41)</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="42" spans="1:3">
+      <c r="A42" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="B42" s="2">
+        <v>0</v>
+      </c>
+      <c r="C42">
+        <f>ABS(B42)</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="43" spans="1:3">
+      <c r="A43" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="B43" s="2">
+        <v>0</v>
+      </c>
+      <c r="C43">
+        <f>ABS(B43)</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="44" spans="1:3">
+      <c r="A44" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="B44" s="2">
+        <v>0</v>
+      </c>
+      <c r="C44">
+        <f>ABS(B44)</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="45" spans="1:3">
+      <c r="A45" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="B45" s="2">
+        <v>0</v>
+      </c>
+      <c r="C45">
+        <f>ABS(B45)</f>
+        <v>0</v>
+      </c>
+    </row>
+  </sheetData>
+  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:C45">
+    <sortCondition descending="1" ref="C1"/>
+  </sortState>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" horizontalDpi="0" verticalDpi="0"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B2F7EDCA-D552-1245-B898-8779AE2CA3F8}">
+  <dimension ref="A1:C45"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection sqref="A1:A45"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="16"/>
+  <cols>
+    <col min="1" max="1" width="40.5" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:3">
+      <c r="A1" t="s">
+        <v>44</v>
+      </c>
+      <c r="B1" t="s">
+        <v>49</v>
+      </c>
+      <c r="C1" t="s">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="2" spans="1:3">
+      <c r="A2" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="B2" s="2">
+        <v>-2.9000359900000001</v>
+      </c>
+      <c r="C2">
+        <f>ABS(B2)</f>
+        <v>2.9000359900000001</v>
+      </c>
+    </row>
+    <row r="3" spans="1:3">
+      <c r="A3" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="B3" s="2">
+        <v>1.8453112899999999</v>
+      </c>
+      <c r="C3">
+        <f>ABS(B3)</f>
+        <v>1.8453112899999999</v>
+      </c>
+    </row>
+    <row r="4" spans="1:3">
+      <c r="A4" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="B4" s="2">
+        <v>-1.45293553</v>
+      </c>
+      <c r="C4">
+        <f>ABS(B4)</f>
+        <v>1.45293553</v>
+      </c>
+    </row>
+    <row r="5" spans="1:3">
+      <c r="A5" s="1" t="s">
+        <v>37</v>
+      </c>
+      <c r="B5" s="2">
+        <v>1.3873087200000001</v>
+      </c>
+      <c r="C5">
+        <f>ABS(B5)</f>
+        <v>1.3873087200000001</v>
+      </c>
+    </row>
+    <row r="6" spans="1:3">
+      <c r="A6" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="B6" s="2">
+        <v>1.0929894600000001</v>
+      </c>
+      <c r="C6">
+        <f>ABS(B6)</f>
+        <v>1.0929894600000001</v>
+      </c>
+    </row>
+    <row r="7" spans="1:3">
+      <c r="A7" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="B7" s="2">
+        <v>-0.94283283299999998</v>
+      </c>
+      <c r="C7">
+        <f>ABS(B7)</f>
+        <v>0.94283283299999998</v>
+      </c>
+    </row>
+    <row r="8" spans="1:3">
+      <c r="A8" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="B8" s="2">
+        <v>0.84078569000000003</v>
+      </c>
+      <c r="C8">
+        <f>ABS(B8)</f>
+        <v>0.84078569000000003</v>
+      </c>
+    </row>
+    <row r="9" spans="1:3">
+      <c r="A9" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="B9" s="2">
+        <v>-0.49123014599999998</v>
+      </c>
+      <c r="C9">
+        <f>ABS(B9)</f>
+        <v>0.49123014599999998</v>
+      </c>
+    </row>
+    <row r="10" spans="1:3">
+      <c r="A10" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="B10" s="2">
+        <v>0.43062677399999999</v>
+      </c>
+      <c r="C10">
+        <f>ABS(B10)</f>
+        <v>0.43062677399999999</v>
+      </c>
+    </row>
+    <row r="11" spans="1:3">
+      <c r="A11" s="1" t="s">
+        <v>42</v>
+      </c>
+      <c r="B11" s="2">
+        <v>-0.39058805299999999</v>
+      </c>
+      <c r="C11">
+        <f>ABS(B11)</f>
+        <v>0.39058805299999999</v>
+      </c>
+    </row>
+    <row r="12" spans="1:3">
+      <c r="A12" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="B12" s="2">
+        <v>0.35755642399999998</v>
+      </c>
+      <c r="C12">
+        <f>ABS(B12)</f>
+        <v>0.35755642399999998</v>
+      </c>
+    </row>
+    <row r="13" spans="1:3">
+      <c r="A13" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="B13" s="2">
+        <v>0.32285434800000001</v>
+      </c>
+      <c r="C13">
+        <f>ABS(B13)</f>
+        <v>0.32285434800000001</v>
+      </c>
+    </row>
+    <row r="14" spans="1:3">
+      <c r="A14" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="B14" s="2">
+        <v>0.316625773</v>
+      </c>
+      <c r="C14">
+        <f>ABS(B14)</f>
+        <v>0.316625773</v>
+      </c>
+    </row>
+    <row r="15" spans="1:3">
+      <c r="A15" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="B15" s="2">
+        <v>-0.27739562299999998</v>
+      </c>
+      <c r="C15">
+        <f>ABS(B15)</f>
+        <v>0.27739562299999998</v>
+      </c>
+    </row>
+    <row r="16" spans="1:3">
+      <c r="A16" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="B16" s="2">
+        <v>0.18789603599999999</v>
+      </c>
+      <c r="C16">
+        <f>ABS(B16)</f>
+        <v>0.18789603599999999</v>
+      </c>
+    </row>
+    <row r="17" spans="1:3">
+      <c r="A17" s="1" t="s">
+        <v>34</v>
+      </c>
+      <c r="B17" s="2">
+        <v>-0.18305491400000001</v>
+      </c>
+      <c r="C17">
+        <f>ABS(B17)</f>
+        <v>0.18305491400000001</v>
+      </c>
+    </row>
+    <row r="18" spans="1:3">
+      <c r="A18" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="B18" s="2">
+        <v>0.18239512299999999</v>
+      </c>
+      <c r="C18">
+        <f>ABS(B18)</f>
+        <v>0.18239512299999999</v>
+      </c>
+    </row>
+    <row r="19" spans="1:3">
+      <c r="A19" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="B19" s="2">
+        <v>0.128547933</v>
+      </c>
+      <c r="C19">
+        <f>ABS(B19)</f>
+        <v>0.128547933</v>
+      </c>
+    </row>
+    <row r="20" spans="1:3">
+      <c r="A20" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="B20" s="2">
+        <v>-0.12560534400000001</v>
+      </c>
+      <c r="C20">
+        <f>ABS(B20)</f>
+        <v>0.12560534400000001</v>
+      </c>
+    </row>
+    <row r="21" spans="1:3">
+      <c r="A21" s="1" t="s">
+        <v>39</v>
+      </c>
+      <c r="B21" s="2">
+        <v>-0.118319193</v>
+      </c>
+      <c r="C21">
+        <f>ABS(B21)</f>
+        <v>0.118319193</v>
+      </c>
+    </row>
+    <row r="22" spans="1:3">
+      <c r="A22" s="1" t="s">
+        <v>27</v>
+      </c>
+      <c r="B22" s="2">
+        <v>9.1565721500000002E-2</v>
+      </c>
+      <c r="C22">
+        <f>ABS(B22)</f>
+        <v>9.1565721500000002E-2</v>
+      </c>
+    </row>
+    <row r="23" spans="1:3">
+      <c r="A23" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="B23" s="2">
+        <v>-5.4562106999999999E-2</v>
+      </c>
+      <c r="C23">
+        <f>ABS(B23)</f>
+        <v>5.4562106999999999E-2</v>
+      </c>
+    </row>
+    <row r="24" spans="1:3">
+      <c r="A24" s="1" t="s">
+        <v>26</v>
+      </c>
+      <c r="B24" s="2">
+        <v>-5.4506980300000001E-2</v>
+      </c>
+      <c r="C24">
+        <f>ABS(B24)</f>
+        <v>5.4506980300000001E-2</v>
+      </c>
+    </row>
+    <row r="25" spans="1:3">
+      <c r="A25" s="1" t="s">
+        <v>40</v>
+      </c>
+      <c r="B25" s="5">
+        <v>-5.4105671500000001E-2</v>
+      </c>
+      <c r="C25">
+        <f>ABS(B25)</f>
+        <v>5.4105671500000001E-2</v>
+      </c>
+    </row>
+    <row r="26" spans="1:3">
+      <c r="A26" s="1" t="s">
+        <v>41</v>
+      </c>
+      <c r="B26" s="2">
+        <v>-4.7347490200000002E-2</v>
+      </c>
+      <c r="C26">
+        <f>ABS(B26)</f>
+        <v>4.7347490200000002E-2</v>
+      </c>
+    </row>
+    <row r="27" spans="1:3">
+      <c r="A27" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="B27" s="2">
+        <v>-4.70317086E-2</v>
+      </c>
+      <c r="C27">
+        <f>ABS(B27)</f>
+        <v>4.70317086E-2</v>
+      </c>
+    </row>
+    <row r="28" spans="1:3">
+      <c r="A28" s="1" t="s">
+        <v>36</v>
+      </c>
+      <c r="B28" s="2">
+        <v>3.9367769900000002E-2</v>
+      </c>
+      <c r="C28">
+        <f>ABS(B28)</f>
+        <v>3.9367769900000002E-2</v>
+      </c>
+    </row>
+    <row r="29" spans="1:3">
+      <c r="A29" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="B29" s="2">
+        <v>-2.85452452E-2</v>
+      </c>
+      <c r="C29">
+        <f>ABS(B29)</f>
+        <v>2.85452452E-2</v>
+      </c>
+    </row>
+    <row r="30" spans="1:3">
+      <c r="A30" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="B30" s="2">
+        <v>-2.67534717E-2</v>
+      </c>
+      <c r="C30">
+        <f>ABS(B30)</f>
+        <v>2.67534717E-2</v>
+      </c>
+    </row>
+    <row r="31" spans="1:3">
+      <c r="A31" s="1" t="s">
+        <v>30</v>
+      </c>
+      <c r="B31" s="2">
+        <v>-1.62063229E-2</v>
+      </c>
+      <c r="C31">
+        <f>ABS(B31)</f>
+        <v>1.62063229E-2</v>
+      </c>
+    </row>
+    <row r="32" spans="1:3">
+      <c r="A32" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="B32" s="2">
+        <v>-1.6112314700000002E-2</v>
+      </c>
+      <c r="C32">
+        <f>ABS(B32)</f>
+        <v>1.6112314700000002E-2</v>
+      </c>
+    </row>
+    <row r="33" spans="1:3">
+      <c r="A33" s="1" t="s">
+        <v>35</v>
+      </c>
+      <c r="B33" s="2">
+        <v>-1.50040685E-2</v>
+      </c>
+      <c r="C33">
+        <f>ABS(B33)</f>
+        <v>1.50040685E-2</v>
+      </c>
+    </row>
+    <row r="34" spans="1:3">
+      <c r="A34" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="B34" s="2">
+        <v>1.45512069E-2</v>
+      </c>
+      <c r="C34">
+        <f>ABS(B34)</f>
+        <v>1.45512069E-2</v>
+      </c>
+    </row>
+    <row r="35" spans="1:3">
+      <c r="A35" s="1" t="s">
+        <v>43</v>
+      </c>
+      <c r="B35" s="2">
+        <v>-3.12313662E-3</v>
+      </c>
+      <c r="C35">
+        <f>ABS(B35)</f>
+        <v>3.12313662E-3</v>
+      </c>
+    </row>
+    <row r="36" spans="1:3">
+      <c r="A36" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="B36" s="2">
+        <v>-2.7218820000000001E-3</v>
+      </c>
+      <c r="C36">
+        <f>ABS(B36)</f>
+        <v>2.7218820000000001E-3</v>
+      </c>
+    </row>
+    <row r="37" spans="1:3">
+      <c r="A37" s="1" t="s">
+        <v>38</v>
+      </c>
+      <c r="B37" s="2">
+        <v>2.4642380900000002E-3</v>
+      </c>
+      <c r="C37">
+        <f>ABS(B37)</f>
+        <v>2.4642380900000002E-3</v>
+      </c>
+    </row>
+    <row r="38" spans="1:3">
+      <c r="A38" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="B38" s="2">
+        <v>1.3039264100000001E-3</v>
+      </c>
+      <c r="C38">
+        <f>ABS(B38)</f>
+        <v>1.3039264100000001E-3</v>
+      </c>
+    </row>
+    <row r="39" spans="1:3">
+      <c r="A39" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="B39" s="2">
+        <v>1.1603116799999999E-3</v>
+      </c>
+      <c r="C39">
+        <f>ABS(B39)</f>
+        <v>1.1603116799999999E-3</v>
+      </c>
+    </row>
+    <row r="40" spans="1:3">
+      <c r="A40" s="1" t="s">
+        <v>32</v>
+      </c>
+      <c r="B40" s="2">
+        <v>-9.4008238599999999E-5</v>
+      </c>
+      <c r="C40">
+        <f>ABS(B40)</f>
+        <v>9.4008238599999999E-5</v>
+      </c>
+    </row>
+    <row r="41" spans="1:3">
+      <c r="A41" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="B41" s="2">
+        <v>-3.0052071900000002E-12</v>
+      </c>
+      <c r="C41">
+        <f>ABS(B41)</f>
+        <v>3.0052071900000002E-12</v>
+      </c>
+    </row>
+    <row r="42" spans="1:3">
+      <c r="A42" s="1" t="s">
+        <v>33</v>
+      </c>
+      <c r="B42" s="2">
+        <v>-1.8906959299999999E-12</v>
+      </c>
+      <c r="C42">
+        <f>ABS(B42)</f>
+        <v>1.8906959299999999E-12</v>
+      </c>
+    </row>
+    <row r="43" spans="1:3">
+      <c r="A43" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B43" s="2">
+        <v>1.5534240600000001E-12</v>
+      </c>
+      <c r="C43">
+        <f>ABS(B43)</f>
+        <v>1.5534240600000001E-12</v>
+      </c>
+    </row>
+    <row r="44" spans="1:3">
+      <c r="A44" s="1" t="s">
+        <v>29</v>
+      </c>
+      <c r="B44" s="2">
+        <v>2.2204460500000001E-16</v>
+      </c>
+      <c r="C44">
+        <f>ABS(B44)</f>
+        <v>2.2204460500000001E-16</v>
+      </c>
+    </row>
+    <row r="45" spans="1:3">
+      <c r="A45" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="B45" s="2">
+        <v>0</v>
+      </c>
+      <c r="C45">
+        <f>ABS(B45)</f>
+        <v>0</v>
+      </c>
+    </row>
+  </sheetData>
+  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:C45">
+    <sortCondition descending="1" ref="C1"/>
+  </sortState>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" horizontalDpi="0" verticalDpi="0"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E89DB8C3-F70B-B142-8050-8184270B4EBF}">
+  <dimension ref="A1:C45"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="E8" sqref="E8"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="16"/>
+  <sheetData>
+    <row r="1" spans="1:3">
+      <c r="A1" t="s">
+        <v>44</v>
+      </c>
+      <c r="B1" t="s">
+        <v>50</v>
+      </c>
+      <c r="C1" t="s">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="2" spans="1:3">
+      <c r="A2" s="1" t="s">
+        <v>32</v>
+      </c>
+      <c r="B2" s="2">
+        <v>-0.48197469300000001</v>
+      </c>
+      <c r="C2">
+        <f>ABS(B2)</f>
+        <v>0.48197469300000001</v>
+      </c>
+    </row>
+    <row r="3" spans="1:3">
+      <c r="A3" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="B3" s="2">
+        <v>0.29154693500000001</v>
+      </c>
+      <c r="C3">
+        <f>ABS(B3)</f>
+        <v>0.29154693500000001</v>
+      </c>
+    </row>
+    <row r="4" spans="1:3">
+      <c r="A4" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="B4" s="2">
+        <v>0.25773192</v>
+      </c>
+      <c r="C4">
+        <f>ABS(B4)</f>
+        <v>0.25773192</v>
+      </c>
+    </row>
+    <row r="5" spans="1:3">
+      <c r="A5" s="1" t="s">
+        <v>39</v>
+      </c>
+      <c r="B5" s="2">
+        <v>-0.24249424999999999</v>
+      </c>
+      <c r="C5">
+        <f>ABS(B5)</f>
+        <v>0.24249424999999999</v>
+      </c>
+    </row>
+    <row r="6" spans="1:3">
+      <c r="A6" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="B6" s="2">
+        <v>-0.24249424999999999</v>
+      </c>
+      <c r="C6">
+        <f>ABS(B6)</f>
+        <v>0.24249424999999999</v>
+      </c>
+    </row>
+    <row r="7" spans="1:3">
+      <c r="A7" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="B7" s="2">
+        <v>-0.228471591</v>
+      </c>
+      <c r="C7">
+        <f>ABS(B7)</f>
+        <v>0.228471591</v>
+      </c>
+    </row>
+    <row r="8" spans="1:3">
+      <c r="A8" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="B8" s="2">
+        <v>0.17327145199999999</v>
+      </c>
+      <c r="C8">
+        <f>ABS(B8)</f>
+        <v>0.17327145199999999</v>
+      </c>
+    </row>
+    <row r="9" spans="1:3">
+      <c r="A9" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="B9" s="2">
+        <v>-0.118275483</v>
+      </c>
+      <c r="C9">
+        <f>ABS(B9)</f>
+        <v>0.118275483</v>
+      </c>
+    </row>
+    <row r="10" spans="1:3">
+      <c r="A10" s="1" t="s">
+        <v>37</v>
+      </c>
+      <c r="B10" s="2">
+        <v>9.9581711200000006E-2</v>
+      </c>
+      <c r="C10">
+        <f>ABS(B10)</f>
+        <v>9.9581711200000006E-2</v>
+      </c>
+    </row>
+    <row r="11" spans="1:3">
+      <c r="A11" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="B11" s="2">
+        <v>9.1571775899999999E-2</v>
+      </c>
+      <c r="C11">
+        <f>ABS(B11)</f>
+        <v>9.1571775899999999E-2</v>
+      </c>
+    </row>
+    <row r="12" spans="1:3">
+      <c r="A12" s="1" t="s">
+        <v>27</v>
+      </c>
+      <c r="B12" s="2">
+        <v>-9.1171915199999995E-2</v>
+      </c>
+      <c r="C12">
+        <f>ABS(B12)</f>
+        <v>9.1171915199999995E-2</v>
+      </c>
+    </row>
+    <row r="13" spans="1:3">
+      <c r="A13" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="B13" s="2">
+        <v>-7.2297926100000007E-2</v>
+      </c>
+      <c r="C13">
+        <f>ABS(B13)</f>
+        <v>7.2297926100000007E-2</v>
+      </c>
+    </row>
+    <row r="14" spans="1:3">
+      <c r="A14" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="B14" s="2">
+        <v>-5.27020905E-2</v>
+      </c>
+      <c r="C14">
+        <f>ABS(B14)</f>
+        <v>5.27020905E-2</v>
+      </c>
+    </row>
+    <row r="15" spans="1:3">
+      <c r="A15" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="B15" s="5">
+        <v>4.74294777E-2</v>
+      </c>
+      <c r="C15">
+        <f>ABS(B15)</f>
+        <v>4.74294777E-2</v>
+      </c>
+    </row>
+    <row r="16" spans="1:3">
+      <c r="A16" s="1" t="s">
+        <v>34</v>
+      </c>
+      <c r="B16" s="2">
+        <v>3.0785437700000001E-2</v>
+      </c>
+      <c r="C16">
+        <f>ABS(B16)</f>
+        <v>3.0785437700000001E-2</v>
+      </c>
+    </row>
+    <row r="17" spans="1:3">
+      <c r="A17" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="B17" s="2">
+        <v>-2.5836831899999999E-2</v>
+      </c>
+      <c r="C17">
+        <f>ABS(B17)</f>
+        <v>2.5836831899999999E-2</v>
+      </c>
+    </row>
+    <row r="18" spans="1:3">
+      <c r="A18" s="1" t="s">
+        <v>33</v>
+      </c>
+      <c r="B18" s="2">
+        <v>-2.5836831899999999E-2</v>
+      </c>
+      <c r="C18">
+        <f>ABS(B18)</f>
+        <v>2.5836831899999999E-2</v>
+      </c>
+    </row>
+    <row r="19" spans="1:3">
+      <c r="A19" s="1" t="s">
+        <v>26</v>
+      </c>
+      <c r="B19" s="2">
+        <v>-1.6189760399999999E-2</v>
+      </c>
+      <c r="C19">
+        <f>ABS(B19)</f>
+        <v>1.6189760399999999E-2</v>
+      </c>
+    </row>
+    <row r="20" spans="1:3">
+      <c r="A20" s="1" t="s">
+        <v>30</v>
+      </c>
+      <c r="B20" s="2">
+        <v>1.38757102E-2</v>
+      </c>
+      <c r="C20">
+        <f>ABS(B20)</f>
+        <v>1.38757102E-2</v>
+      </c>
+    </row>
+    <row r="21" spans="1:3">
+      <c r="A21" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="B21" s="2">
+        <v>1.38757102E-2</v>
+      </c>
+      <c r="C21">
+        <f>ABS(B21)</f>
+        <v>1.38757102E-2</v>
+      </c>
+    </row>
+    <row r="22" spans="1:3">
+      <c r="A22" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="B22" s="2">
+        <v>-2.6606089700000001E-3</v>
+      </c>
+      <c r="C22">
+        <f>ABS(B22)</f>
+        <v>2.6606089700000001E-3</v>
+      </c>
+    </row>
+    <row r="23" spans="1:3">
+      <c r="A23" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="B23" s="2">
+        <v>-5.1902926399999997E-15</v>
+      </c>
+      <c r="C23">
+        <f>ABS(B23)</f>
+        <v>5.1902926399999997E-15</v>
+      </c>
+    </row>
+    <row r="24" spans="1:3">
+      <c r="A24" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="B24" s="2">
+        <v>-2.9837243799999999E-15</v>
+      </c>
+      <c r="C24">
+        <f>ABS(B24)</f>
+        <v>2.9837243799999999E-15</v>
+      </c>
+    </row>
+    <row r="25" spans="1:3">
+      <c r="A25" s="1" t="s">
+        <v>42</v>
+      </c>
+      <c r="B25" s="2">
+        <v>2.6645352600000002E-15</v>
+      </c>
+      <c r="C25">
+        <f>ABS(B25)</f>
+        <v>2.6645352600000002E-15</v>
+      </c>
+    </row>
+    <row r="26" spans="1:3">
+      <c r="A26" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="B26" s="2">
+        <v>2.0539125999999998E-15</v>
+      </c>
+      <c r="C26">
+        <f>ABS(B26)</f>
+        <v>2.0539125999999998E-15</v>
+      </c>
+    </row>
+    <row r="27" spans="1:3">
+      <c r="A27" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="B27" s="2">
+        <v>-1.8318679899999999E-15</v>
+      </c>
+      <c r="C27">
+        <f>ABS(B27)</f>
+        <v>1.8318679899999999E-15</v>
+      </c>
+    </row>
+    <row r="28" spans="1:3">
+      <c r="A28" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="B28" s="2">
+        <v>-9.7144514699999996E-16</v>
+      </c>
+      <c r="C28">
+        <f>ABS(B28)</f>
+        <v>9.7144514699999996E-16</v>
+      </c>
+    </row>
+    <row r="29" spans="1:3">
+      <c r="A29" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="B29" s="2">
+        <v>-8.3266726800000004E-17</v>
+      </c>
+      <c r="C29">
+        <f>ABS(B29)</f>
+        <v>8.3266726800000004E-17</v>
+      </c>
+    </row>
+    <row r="30" spans="1:3">
+      <c r="A30" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="B30" s="2">
+        <v>0</v>
+      </c>
+      <c r="C30">
+        <f>ABS(B30)</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="31" spans="1:3">
+      <c r="A31" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="B31" s="2">
+        <v>0</v>
+      </c>
+      <c r="C31">
+        <f>ABS(B31)</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="32" spans="1:3">
+      <c r="A32" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="B32" s="2">
+        <v>0</v>
+      </c>
+      <c r="C32">
+        <f>ABS(B32)</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="33" spans="1:3">
+      <c r="A33" s="1" t="s">
+        <v>40</v>
+      </c>
+      <c r="B33" s="2">
+        <v>0</v>
+      </c>
+      <c r="C33">
+        <f>ABS(B33)</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="34" spans="1:3">
+      <c r="A34" s="1" t="s">
+        <v>41</v>
+      </c>
+      <c r="B34" s="2">
+        <v>0</v>
+      </c>
+      <c r="C34">
+        <f>ABS(B34)</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="35" spans="1:3">
+      <c r="A35" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="B35" s="2">
+        <v>0</v>
+      </c>
+      <c r="C35">
+        <f>ABS(B35)</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="36" spans="1:3">
+      <c r="A36" s="1" t="s">
+        <v>36</v>
+      </c>
+      <c r="B36" s="2">
+        <v>0</v>
+      </c>
+      <c r="C36">
+        <f>ABS(B36)</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="37" spans="1:3">
+      <c r="A37" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="B37" s="2">
+        <v>0</v>
+      </c>
+      <c r="C37">
+        <f>ABS(B37)</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="38" spans="1:3">
+      <c r="A38" s="1" t="s">
+        <v>35</v>
+      </c>
+      <c r="B38" s="2">
+        <v>0</v>
+      </c>
+      <c r="C38">
+        <f>ABS(B38)</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="39" spans="1:3">
+      <c r="A39" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="B39" s="2">
+        <v>0</v>
+      </c>
+      <c r="C39">
+        <f>ABS(B39)</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="40" spans="1:3">
+      <c r="A40" s="1" t="s">
+        <v>43</v>
+      </c>
+      <c r="B40" s="2">
+        <v>0</v>
+      </c>
+      <c r="C40">
+        <f>ABS(B40)</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="41" spans="1:3">
+      <c r="A41" s="1" t="s">
+        <v>38</v>
+      </c>
+      <c r="B41" s="2">
+        <v>0</v>
+      </c>
+      <c r="C41">
+        <f>ABS(B41)</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="42" spans="1:3">
+      <c r="A42" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="B42" s="2">
+        <v>0</v>
+      </c>
+      <c r="C42">
+        <f>ABS(B42)</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="43" spans="1:3">
+      <c r="A43" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B43" s="2">
+        <v>0</v>
+      </c>
+      <c r="C43">
+        <f>ABS(B43)</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="44" spans="1:3">
+      <c r="A44" s="1" t="s">
+        <v>29</v>
+      </c>
+      <c r="B44" s="2">
+        <v>0</v>
+      </c>
+      <c r="C44">
+        <f>ABS(B44)</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="45" spans="1:3">
+      <c r="A45" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="B45" s="2">
+        <v>0</v>
+      </c>
+      <c r="C45">
+        <f>ABS(B45)</f>
+        <v>0</v>
+      </c>
+    </row>
+  </sheetData>
+  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:C45">
+    <sortCondition descending="1" ref="C1"/>
+  </sortState>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" horizontalDpi="0" verticalDpi="0"/>
+</worksheet>
 </file>